--- a/tracking/FUTURE_WORK_TRACKING.xlsx
+++ b/tracking/FUTURE_WORK_TRACKING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ExecutiveSearchYaml\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03107E3-0138-4887-B616-EF9A61DE6D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B906C3F-8620-4D23-94C6-67B341953258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5060" yWindow="1500" windowWidth="16690" windowHeight="17860" activeTab="2" xr2:uid="{B3191408-E674-4EE2-9D0E-8CE05EC6EC45}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>Category</t>
   </si>
@@ -248,6 +248,39 @@
   </si>
   <si>
     <t>https://www.ckha.on.ca/senior-team/</t>
+  </si>
+  <si>
+    <t>Halton</t>
+  </si>
+  <si>
+    <t>https://www.haltonhealthcare.on.ca/about/leadership-team/executive-leadership-team</t>
+  </si>
+  <si>
+    <t>h3 with &lt;br&gt; separator no bold tags</t>
+  </si>
+  <si>
+    <t>Bluewater</t>
+  </si>
+  <si>
+    <t>https://www.bluewaterhealth.ca/executive-team</t>
+  </si>
+  <si>
+    <t>site blocking</t>
+  </si>
+  <si>
+    <t>Cornwall</t>
+  </si>
+  <si>
+    <t>Headwaters</t>
+  </si>
+  <si>
+    <t>"https://www.cornwallhospital.ca/en/SeniorAdmin"</t>
+  </si>
+  <si>
+    <t>Reversed titles</t>
+  </si>
+  <si>
+    <t>https://www.headwatershealth.ca/who-we-are/governance/executive-leadership-team/</t>
   </si>
 </sst>
 </file>
@@ -313,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,6 +364,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1016,13 +1050,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FADFA7-0183-491A-B377-BE9BEEC21271}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="A8:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.5">
       <c r="A1" s="3" t="s">
@@ -1159,6 +1197,107 @@
         <v>46029</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="72.5">
+      <c r="A8" s="2">
+        <v>950</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45948</v>
+      </c>
+      <c r="G8" s="6">
+        <v>46038</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29">
+      <c r="A9" s="2">
+        <v>966</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45948</v>
+      </c>
+      <c r="G9" s="6">
+        <v>46038</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29">
+      <c r="A10" s="2">
+        <v>967</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45948</v>
+      </c>
+      <c r="G10" s="6">
+        <v>46038</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29">
+      <c r="A11" s="2">
+        <v>916</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45948</v>
+      </c>
+      <c r="G11" s="6">
+        <v>46038</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1168,6 +1307,8 @@
     <hyperlink ref="C5" r:id="rId2" display="https://www.uhn.ca/" xr:uid="{F5656832-598B-4797-9FF6-741059ADBAC6}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{10A381D1-6A3C-42DE-A104-0FF1D76EDAFC}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{3B79A143-F85C-4BA6-A33E-ADE1BC88C398}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{067638A1-07B2-478B-96C0-8C80C088C4BC}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{5BCD0455-BA01-42C1-86B4-DDCF8D5EE0CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracking/FUTURE_WORK_TRACKING.xlsx
+++ b/tracking/FUTURE_WORK_TRACKING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ExecutiveSearchYaml\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B906C3F-8620-4D23-94C6-67B341953258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9307C362-76BA-4ED0-8AB8-6205FE70C6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="1500" windowWidth="16690" windowHeight="17860" activeTab="2" xr2:uid="{B3191408-E674-4EE2-9D0E-8CE05EC6EC45}"/>
+    <workbookView xWindow="5400" yWindow="1840" windowWidth="16690" windowHeight="17860" activeTab="2" xr2:uid="{B3191408-E674-4EE2-9D0E-8CE05EC6EC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Category Summary" sheetId="1" r:id="rId1"/>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/tracking/FUTURE_WORK_TRACKING.xlsx
+++ b/tracking/FUTURE_WORK_TRACKING.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ExecutiveSearchYaml\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9307C362-76BA-4ED0-8AB8-6205FE70C6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8397FE7F-3F8E-4AAD-BE66-76DE4BBE0A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1840" windowWidth="16690" windowHeight="17860" activeTab="2" xr2:uid="{B3191408-E674-4EE2-9D0E-8CE05EC6EC45}"/>
+    <workbookView xWindow="15780" yWindow="2500" windowWidth="16690" windowHeight="17860" activeTab="2" xr2:uid="{B3191408-E674-4EE2-9D0E-8CE05EC6EC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Category Summary" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>Category</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>https://www.headwatershealth.ca/who-we-are/governance/executive-leadership-team/</t>
+  </si>
+  <si>
+    <t>627 and 650  have the titles enclosed in "() " Lets note the "()" issue and if it comes up again we can think about a pattern</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FADFA7-0183-491A-B377-BE9BEEC21271}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1299,6 +1302,14 @@
       </c>
       <c r="H11" s="2" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>627</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
